--- a/Details/ALADIN Details.xlsx
+++ b/Details/ALADIN Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://danfoss-my.sharepoint.com/personal/asish_george_danfoss_com/Documents/Shared Folders/Danfoss/ALADIN/Details/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC1048C821184BB45ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{085020B0-799E-4D93-B23F-15624BF61DAE}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC1048C821184BB45ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E362A0C4-AA58-4F13-86DE-1FFD9EC9274B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>Options</t>
   </si>
   <si>
-    <t>open loop, closed loop</t>
-  </si>
-  <si>
     <t>Param 100</t>
   </si>
   <si>
@@ -93,18 +90,12 @@
     <t>Drop Down Input</t>
   </si>
   <si>
-    <t>U/F, VVC+</t>
-  </si>
-  <si>
     <t>Param 101</t>
   </si>
   <si>
     <t>Motor construction</t>
   </si>
   <si>
-    <t xml:space="preserve"> [0] asynchron [1] PM, non salient SPM [2] PM, salient IPM [5] SynRM [6] PMaSynRM</t>
-  </si>
-  <si>
     <t>Param 110</t>
   </si>
   <si>
@@ -133,13 +124,22 @@
   </si>
   <si>
     <t>Param 417</t>
+  </si>
+  <si>
+    <t>Open loop [0], Closed loop [3]</t>
+  </si>
+  <si>
+    <t>U/F [0], VVC+ [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asynchron [0] , PM - non salient SPM [1], PM - salient IPM [2] , SynRM [5],  PMaSynRM [6]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,13 +155,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -188,6 +200,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +485,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,95 +598,96 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Classified as Business</oddFooter>
   </headerFooter>

--- a/Details/ALADIN Details.xlsx
+++ b/Details/ALADIN Details.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://danfoss-my.sharepoint.com/personal/asish_george_danfoss_com/Documents/Shared Folders/Danfoss/ALADIN/Details/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC1048C821184BB45ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E362A0C4-AA58-4F13-86DE-1FFD9EC9274B}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="11_F25DC773A252ABDACC1048C821184BB45ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{953681B4-D4DE-4750-B50B-1AC3873733BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>Customer Name</t>
   </si>
@@ -99,12 +100,6 @@
     <t>Param 110</t>
   </si>
   <si>
-    <t>Operation mode</t>
-  </si>
-  <si>
-    <t>Keypad, Digital Input, Fieldbus</t>
-  </si>
-  <si>
     <t>Reference Site</t>
   </si>
   <si>
@@ -133,13 +128,118 @@
   </si>
   <si>
     <t xml:space="preserve"> Asynchron [0] , PM - non salient SPM [1], PM - salient IPM [2] , SynRM [5],  PMaSynRM [6]</t>
+  </si>
+  <si>
+    <t>Parameter Number</t>
+  </si>
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>Parameter Details</t>
+  </si>
+  <si>
+    <t>Motor Power [kW]</t>
+  </si>
+  <si>
+    <t>Motor Voltage</t>
+  </si>
+  <si>
+    <t>Motor Frequency</t>
+  </si>
+  <si>
+    <t>Motor Current</t>
+  </si>
+  <si>
+    <t>Motor Nominal Speed</t>
+  </si>
+  <si>
+    <t>Configuration Mode</t>
+  </si>
+  <si>
+    <t>Motor Control Principle</t>
+  </si>
+  <si>
+    <t>Motor Construction</t>
+  </si>
+  <si>
+    <t>Torque Limit Generator Mode</t>
+  </si>
+  <si>
+    <t>J115</t>
+  </si>
+  <si>
+    <t>J116</t>
+  </si>
+  <si>
+    <t>J117</t>
+  </si>
+  <si>
+    <t>J118</t>
+  </si>
+  <si>
+    <t>J119</t>
+  </si>
+  <si>
+    <t>J109</t>
+  </si>
+  <si>
+    <t>J110</t>
+  </si>
+  <si>
+    <t>J114</t>
+  </si>
+  <si>
+    <t>J201</t>
+  </si>
+  <si>
+    <t>J200</t>
+  </si>
+  <si>
+    <t>Excel Sheet cell</t>
+  </si>
+  <si>
+    <t>JSON Mapping Key</t>
+  </si>
+  <si>
+    <t>configuration.control_mode</t>
+  </si>
+  <si>
+    <t>configuration.motor_control_principle</t>
+  </si>
+  <si>
+    <t>configuration.motor_construction</t>
+  </si>
+  <si>
+    <t>motor_data.selected_rating.Power</t>
+  </si>
+  <si>
+    <t>motor_data.selected_rating.Voltage</t>
+  </si>
+  <si>
+    <t>motor_data.selected_rating.Frequency</t>
+  </si>
+  <si>
+    <t>motor_data.selected_rating.Current</t>
+  </si>
+  <si>
+    <t>motor_data.selected_rating.Speed</t>
+  </si>
+  <si>
+    <t>configuration.reference_site</t>
+  </si>
+  <si>
+    <t>configuration.torque_limit</t>
+  </si>
+  <si>
+    <t>configuration.current_limit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,22 +261,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,11 +291,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -200,8 +322,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,13 +627,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
@@ -496,7 +641,7 @@
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -510,7 +655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -526,7 +671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -534,7 +679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -542,7 +687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -550,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -558,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -566,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -574,7 +719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -585,7 +730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -593,7 +738,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -601,13 +746,13 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -615,13 +760,13 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="43.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -629,41 +774,38 @@
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -672,17 +814,6 @@
       </c>
       <c r="D18" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -694,6 +825,286 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2CE32E-8FE2-4C5E-A0D2-9DFEDDC489B7}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="15.6">
+      <c r="A1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>101</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>110</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>120</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>122</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>123</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>124</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>125</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>313</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>417</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>418</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+    <sortCondition ref="B1:B13"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{8d6a82de-332f-43b8-a8a7-1928fd67507f}" enabled="1" method="Standard" siteId="{097464b8-069c-453e-9254-c17ec707310d}" removed="0"/>
